--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Escuela\TalentTech\Programacion_Avanzada\ejercicios\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77B7DB2-A9C8-4BC9-906D-7D19CD7D8E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308E833D-3752-4272-A814-AD636C137587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="4125" windowWidth="15645" windowHeight="7845" xr2:uid="{471A9401-57BB-4264-B8E1-F93F1CD70C2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{471A9401-57BB-4264-B8E1-F93F1CD70C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="205">
   <si>
     <t>Pérez</t>
   </si>
@@ -624,6 +624,42 @@
   </si>
   <si>
     <t>Jphndoe@example.com</t>
+  </si>
+  <si>
+    <t>password51</t>
+  </si>
+  <si>
+    <t>Juanes</t>
+  </si>
+  <si>
+    <t>bravo</t>
+  </si>
+  <si>
+    <t>jaunes@example.com</t>
+  </si>
+  <si>
+    <t>mario</t>
+  </si>
+  <si>
+    <t>bross</t>
+  </si>
+  <si>
+    <t>mario.bros@example.com</t>
+  </si>
+  <si>
+    <t>lugi</t>
+  </si>
+  <si>
+    <t>luigi.bros@example.com</t>
+  </si>
+  <si>
+    <t>peterson</t>
+  </si>
+  <si>
+    <t>grifind</t>
+  </si>
+  <si>
+    <t>piterson@example.com</t>
   </si>
 </sst>
 </file>
@@ -1040,9 +1076,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0546F60-221C-46BC-A368-DE85358430B6}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1174,759 +1212,831 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>198</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>198</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>203</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
+        <v>56</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>57</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>58</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>59</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>60</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{59EEE937-6CAC-41B8-B098-F967289D7729}"/>
+    <hyperlink ref="D55" r:id="rId2" xr:uid="{C9713B63-F160-4193-AC1A-2EFC7F7BB53D}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{3B3262C9-964D-4475-8E8B-E81E86BDE5B5}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{B3E9D000-93FA-44C7-BED6-269E459261C0}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{20337C98-37C3-4443-8394-7BE5DAD53A0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
